--- a/target/classes/excel/filter_output.xlsx
+++ b/target/classes/excel/filter_output.xlsx
@@ -3,17 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B488AA97-4C6D-40C4-868B-39F7D4C8808B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5227CFC-2E69-4BD1-A239-9E22514AA618}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1365" yWindow="2355" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -311,10 +317,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -596,498 +603,504 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.0" customWidth="true"/>
-    <col min="2" max="2" width="8.0" customWidth="true"/>
-    <col min="3" max="3" width="8.0" customWidth="true"/>
-    <col min="4" max="4" width="8.0" customWidth="true"/>
-    <col min="5" max="5" width="8.0" customWidth="true"/>
-    <col min="6" max="6" width="8.0" customWidth="true"/>
-    <col min="7" max="7" width="8.0" customWidth="true"/>
-    <col min="8" max="8" width="8.0" customWidth="true"/>
+    <col min="11" max="16384" style="2" width="9.140625" collapsed="true"/>
+    <col min="9" max="9" style="2" width="9.140625" collapsed="true"/>
+    <col min="10" max="10" style="2" width="9.140625" collapsed="true" customWidth="true"/>
+    <col min="8" max="8" style="2" width="9.140625" collapsed="true" customWidth="true"/>
+    <col min="7" max="7" style="2" width="9.140625" collapsed="true" customWidth="true"/>
+    <col min="6" max="6" style="2" width="9.140625" collapsed="true" customWidth="true"/>
+    <col min="5" max="5" style="2" width="9.140625" collapsed="true" customWidth="true"/>
+    <col min="4" max="4" style="2" width="9.140625" collapsed="true" customWidth="true"/>
+    <col min="3" max="3" style="2" width="9.140625" collapsed="true" customWidth="true"/>
+    <col min="2" max="2" style="2" width="9.140625" collapsed="true" customWidth="true"/>
+    <col min="1" max="1" style="2" width="9.140625" collapsed="false" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="23.25" x14ac:dyDescent="0.35" customHeight="true">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.35" customHeight="true">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" ht="15.0" customHeight="true"/>
-    <row r="3" spans="1:1" ht="18.75" x14ac:dyDescent="0.3" customHeight="true">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3" customHeight="true">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s" s="3">
+      <c r="B4" t="s" s="4">
         <v>8</v>
       </c>
-      <c r="C4" t="s" s="3">
+      <c r="C4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s" s="3">
+      <c r="D4" t="s" s="4">
         <v>28</v>
       </c>
-      <c r="E4" t="s" s="3">
+      <c r="E4" t="s" s="4">
         <v>38</v>
       </c>
-      <c r="F4" t="s" s="3">
+      <c r="F4" t="s" s="4">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="3">
+      <c r="G4" t="s" s="4">
         <v>58</v>
       </c>
-      <c r="H4" t="s" s="3">
+      <c r="H4" t="s" s="4">
         <v>61</v>
       </c>
+      <c r="J4" s="2">
+        <f>A4,A5,A6,A7,A8,A9,A10,A11,A12,A13,B4,B5,B6,B7,B8,B9,B10,B11,B12,B13,C4,C5,C6,C7,C8,C9,C10,C11,C12,C13,D4,D5,D6,D7,D8,D9,D10,D11,D12,D13,E4,E5,E6,E7,E8,E9,E10,E11,E12,E13,F4,F5,F6,F7,F8,F9,F10,F11,F12,F13,G4,G5,G6,G7,G8,G9,G10,G11,G12,G13,H4,H5,H6,H7,H8,H9,H10,H11,H12,H13</f>
+      </c>
     </row>
     <row r="5" ht="15.0" customHeight="true">
-      <c r="A5" t="s" s="3">
+      <c r="A5" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="B5" t="s" s="3">
+      <c r="B5" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="C5" t="s" s="3">
+      <c r="C5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="D5" t="s" s="3">
+      <c r="D5" t="s" s="4">
         <v>29</v>
       </c>
-      <c r="E5" t="s" s="3">
+      <c r="E5" t="s" s="4">
         <v>39</v>
       </c>
-      <c r="F5" t="s" s="3">
+      <c r="F5" t="s" s="4">
         <v>49</v>
       </c>
-      <c r="G5" t="s" s="3">
+      <c r="G5" t="s" s="4">
         <v>59</v>
       </c>
-      <c r="H5" t="s" s="3">
+      <c r="H5" t="s" s="4">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.0" x14ac:dyDescent="0.3" customHeight="true">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:3" ht="15.0" x14ac:dyDescent="0.3" customHeight="true">
+      <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s" s="3">
+      <c r="B6" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C6" t="s" s="3">
+      <c r="C6" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="D6" t="s" s="3">
+      <c r="D6" t="s" s="4">
         <v>30</v>
       </c>
-      <c r="E6" t="s" s="3">
+      <c r="E6" t="s" s="4">
         <v>40</v>
       </c>
-      <c r="F6" t="s" s="3">
+      <c r="F6" t="s" s="4">
         <v>50</v>
       </c>
-      <c r="G6" t="s" s="3">
+      <c r="G6" t="s" s="4">
         <v>60</v>
       </c>
-      <c r="H6" t="s" s="3">
+      <c r="H6" t="s" s="4">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
+      <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s" s="3">
+      <c r="B7" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="C7" t="s" s="3">
+      <c r="C7" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="D7" t="s" s="3">
+      <c r="D7" t="s" s="4">
         <v>31</v>
       </c>
-      <c r="E7" t="s" s="3">
+      <c r="E7" t="s" s="4">
         <v>41</v>
       </c>
-      <c r="F7" t="s" s="3">
+      <c r="F7" t="s" s="4">
         <v>51</v>
       </c>
-      <c r="G7" t="s" s="3">
+      <c r="G7" t="s" s="4">
         <v>58</v>
       </c>
-      <c r="H7" t="s" s="3">
+      <c r="H7" t="s" s="4">
         <v>63</v>
       </c>
     </row>
     <row r="8" ht="15.0" customHeight="true">
-      <c r="A8" t="s" s="3">
+      <c r="A8" t="s" s="4">
         <v>7</v>
       </c>
-      <c r="B8" t="s" s="3">
+      <c r="B8" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="C8" t="s" s="3">
+      <c r="C8" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="D8" t="s" s="3">
+      <c r="D8" t="s" s="4">
         <v>32</v>
       </c>
-      <c r="E8" t="s" s="3">
+      <c r="E8" t="s" s="4">
         <v>42</v>
       </c>
-      <c r="F8" t="s" s="3">
+      <c r="F8" t="s" s="4">
         <v>52</v>
       </c>
-      <c r="G8" t="s" s="3">
+      <c r="G8" t="s" s="4">
         <v>58</v>
       </c>
-      <c r="H8" t="s" s="3">
+      <c r="H8" t="s" s="4">
         <v>64</v>
       </c>
     </row>
     <row r="9" ht="15.0" customHeight="true">
-      <c r="A9" t="s" s="3">
+      <c r="A9" t="s" s="4">
         <v>7</v>
       </c>
-      <c r="B9" t="s" s="3">
+      <c r="B9" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="C9" t="s" s="3">
+      <c r="C9" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="D9" t="s" s="3">
+      <c r="D9" t="s" s="4">
         <v>33</v>
       </c>
-      <c r="E9" t="s" s="3">
+      <c r="E9" t="s" s="4">
         <v>43</v>
       </c>
-      <c r="F9" t="s" s="3">
+      <c r="F9" t="s" s="4">
         <v>53</v>
       </c>
-      <c r="G9" t="s" s="3">
+      <c r="G9" t="s" s="4">
         <v>58</v>
       </c>
-      <c r="H9" t="s" s="3">
+      <c r="H9" t="s" s="4">
         <v>65</v>
       </c>
     </row>
     <row r="10" ht="15.0" customHeight="true">
-      <c r="A10" t="s" s="3">
+      <c r="A10" t="s" s="4">
         <v>7</v>
       </c>
-      <c r="B10" t="s" s="3">
+      <c r="B10" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="C10" t="s" s="3">
+      <c r="C10" t="s" s="4">
         <v>24</v>
       </c>
-      <c r="D10" t="s" s="3">
+      <c r="D10" t="s" s="4">
         <v>34</v>
       </c>
-      <c r="E10" t="s" s="3">
+      <c r="E10" t="s" s="4">
         <v>44</v>
       </c>
-      <c r="F10" t="s" s="3">
+      <c r="F10" t="s" s="4">
         <v>54</v>
       </c>
-      <c r="G10" t="s" s="3">
+      <c r="G10" t="s" s="4">
         <v>58</v>
       </c>
-      <c r="H10" t="s" s="3">
+      <c r="H10" t="s" s="4">
         <v>66</v>
       </c>
     </row>
     <row r="11" ht="15.0" customHeight="true">
-      <c r="A11" t="s" s="3">
+      <c r="A11" t="s" s="4">
         <v>7</v>
       </c>
-      <c r="B11" t="s" s="3">
+      <c r="B11" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="C11" t="s" s="3">
+      <c r="C11" t="s" s="4">
         <v>25</v>
       </c>
-      <c r="D11" t="s" s="3">
+      <c r="D11" t="s" s="4">
         <v>35</v>
       </c>
-      <c r="E11" t="s" s="3">
+      <c r="E11" t="s" s="4">
         <v>45</v>
       </c>
-      <c r="F11" t="s" s="3">
+      <c r="F11" t="s" s="4">
         <v>55</v>
       </c>
-      <c r="G11" t="s" s="3">
+      <c r="G11" t="s" s="4">
         <v>58</v>
       </c>
-      <c r="H11" t="s" s="3">
+      <c r="H11" t="s" s="4">
         <v>67</v>
       </c>
     </row>
     <row r="12" ht="15.0" customHeight="true">
-      <c r="A12" t="s" s="3">
+      <c r="A12" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="B12" t="s" s="3">
+      <c r="B12" t="s" s="4">
         <v>16</v>
       </c>
-      <c r="C12" t="s" s="3">
+      <c r="C12" t="s" s="4">
         <v>26</v>
       </c>
-      <c r="D12" t="s" s="3">
+      <c r="D12" t="s" s="4">
         <v>36</v>
       </c>
-      <c r="E12" t="s" s="3">
+      <c r="E12" t="s" s="4">
         <v>46</v>
       </c>
-      <c r="F12" t="s" s="3">
+      <c r="F12" t="s" s="4">
         <v>56</v>
       </c>
-      <c r="G12" t="s" s="3">
+      <c r="G12" t="s" s="4">
         <v>58</v>
       </c>
-      <c r="H12" t="s" s="3">
+      <c r="H12" t="s" s="4">
         <v>68</v>
       </c>
     </row>
     <row r="13" ht="15.0" customHeight="true">
-      <c r="A13" t="s" s="3">
+      <c r="A13" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="B13" t="s" s="3">
+      <c r="B13" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C13" t="s" s="3">
+      <c r="C13" t="s" s="4">
         <v>27</v>
       </c>
-      <c r="D13" t="s" s="3">
+      <c r="D13" t="s" s="4">
         <v>37</v>
       </c>
-      <c r="E13" t="s" s="3">
+      <c r="E13" t="s" s="4">
         <v>47</v>
       </c>
-      <c r="F13" t="s" s="3">
+      <c r="F13" t="s" s="4">
         <v>57</v>
       </c>
-      <c r="G13" t="s" s="3">
+      <c r="G13" t="s" s="4">
         <v>58</v>
       </c>
-      <c r="H13" t="s" s="3">
+      <c r="H13" t="s" s="4">
         <v>69</v>
       </c>
     </row>
     <row r="14" ht="15.0" customHeight="true"/>
     <row r="15" ht="18.75" customHeight="true">
-      <c r="A15" t="s" s="1">
+      <c r="A15" t="s" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="16" ht="15.0" customHeight="true">
-      <c r="A16" t="s" s="3">
+      <c r="A16" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="B16" t="s" s="3">
+      <c r="B16" t="s" s="4">
         <v>8</v>
       </c>
-      <c r="C16" t="s" s="3">
+      <c r="C16" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D16" t="s" s="3">
+      <c r="D16" t="s" s="4">
         <v>28</v>
       </c>
-      <c r="E16" t="s" s="3">
+      <c r="E16" t="s" s="4">
         <v>38</v>
       </c>
-      <c r="F16" t="s" s="3">
+      <c r="F16" t="s" s="4">
         <v>61</v>
       </c>
     </row>
     <row r="17" ht="15.0" customHeight="true">
-      <c r="A17" t="s" s="3">
+      <c r="A17" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="B17" t="s" s="3">
+      <c r="B17" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="C17" t="s" s="3">
+      <c r="C17" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="D17" t="s" s="3">
+      <c r="D17" t="s" s="4">
         <v>29</v>
       </c>
-      <c r="E17" t="s" s="3">
+      <c r="E17" t="s" s="4">
         <v>39</v>
       </c>
-      <c r="F17" t="s" s="3">
+      <c r="F17" t="s" s="4">
         <v>62</v>
       </c>
     </row>
     <row r="18" ht="15.0" customHeight="true">
-      <c r="A18" t="s" s="3">
+      <c r="A18" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="B18" t="s" s="3">
+      <c r="B18" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C18" t="s" s="3">
+      <c r="C18" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="D18" t="s" s="3">
+      <c r="D18" t="s" s="4">
         <v>30</v>
       </c>
-      <c r="E18" t="s" s="3">
+      <c r="E18" t="s" s="4">
         <v>40</v>
       </c>
-      <c r="F18" t="s" s="3">
+      <c r="F18" t="s" s="4">
         <v>63</v>
       </c>
     </row>
     <row r="19" ht="15.0" customHeight="true">
-      <c r="A19" t="s" s="3">
+      <c r="A19" t="s" s="4">
         <v>7</v>
       </c>
-      <c r="B19" t="s" s="3">
+      <c r="B19" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="C19" t="s" s="3">
+      <c r="C19" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="D19" t="s" s="3">
+      <c r="D19" t="s" s="4">
         <v>31</v>
       </c>
-      <c r="E19" t="s" s="3">
+      <c r="E19" t="s" s="4">
         <v>41</v>
       </c>
-      <c r="F19" t="s" s="3">
+      <c r="F19" t="s" s="4">
         <v>63</v>
       </c>
     </row>
     <row r="20" ht="15.0" customHeight="true">
-      <c r="A20" t="s" s="3">
+      <c r="A20" t="s" s="4">
         <v>7</v>
       </c>
-      <c r="B20" t="s" s="3">
+      <c r="B20" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="C20" t="s" s="3">
+      <c r="C20" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="D20" t="s" s="3">
+      <c r="D20" t="s" s="4">
         <v>32</v>
       </c>
-      <c r="E20" t="s" s="3">
+      <c r="E20" t="s" s="4">
         <v>42</v>
       </c>
-      <c r="F20" t="s" s="3">
+      <c r="F20" t="s" s="4">
         <v>64</v>
       </c>
     </row>
     <row r="21" ht="15.0" customHeight="true">
-      <c r="A21" t="s" s="3">
+      <c r="A21" t="s" s="4">
         <v>7</v>
       </c>
-      <c r="B21" t="s" s="3">
+      <c r="B21" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="C21" t="s" s="3">
+      <c r="C21" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="D21" t="s" s="3">
+      <c r="D21" t="s" s="4">
         <v>33</v>
       </c>
-      <c r="E21" t="s" s="3">
+      <c r="E21" t="s" s="4">
         <v>43</v>
       </c>
-      <c r="F21" t="s" s="3">
+      <c r="F21" t="s" s="4">
         <v>65</v>
       </c>
     </row>
     <row r="22" ht="15.0" customHeight="true">
-      <c r="A22" t="s" s="3">
+      <c r="A22" t="s" s="4">
         <v>7</v>
       </c>
-      <c r="B22" t="s" s="3">
+      <c r="B22" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="C22" t="s" s="3">
+      <c r="C22" t="s" s="4">
         <v>24</v>
       </c>
-      <c r="D22" t="s" s="3">
+      <c r="D22" t="s" s="4">
         <v>34</v>
       </c>
-      <c r="E22" t="s" s="3">
+      <c r="E22" t="s" s="4">
         <v>44</v>
       </c>
-      <c r="F22" t="s" s="3">
+      <c r="F22" t="s" s="4">
         <v>66</v>
       </c>
     </row>
     <row r="23" ht="15.0" customHeight="true">
-      <c r="A23" t="s" s="3">
+      <c r="A23" t="s" s="4">
         <v>7</v>
       </c>
-      <c r="B23" t="s" s="3">
+      <c r="B23" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="C23" t="s" s="3">
+      <c r="C23" t="s" s="4">
         <v>25</v>
       </c>
-      <c r="D23" t="s" s="3">
+      <c r="D23" t="s" s="4">
         <v>35</v>
       </c>
-      <c r="E23" t="s" s="3">
+      <c r="E23" t="s" s="4">
         <v>45</v>
       </c>
-      <c r="F23" t="s" s="3">
+      <c r="F23" t="s" s="4">
         <v>67</v>
       </c>
     </row>
     <row r="24" ht="15.0" customHeight="true">
-      <c r="A24" t="s" s="3">
+      <c r="A24" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="B24" t="s" s="3">
+      <c r="B24" t="s" s="4">
         <v>16</v>
       </c>
-      <c r="C24" t="s" s="3">
+      <c r="C24" t="s" s="4">
         <v>26</v>
       </c>
-      <c r="D24" t="s" s="3">
+      <c r="D24" t="s" s="4">
         <v>36</v>
       </c>
-      <c r="E24" t="s" s="3">
+      <c r="E24" t="s" s="4">
         <v>46</v>
       </c>
-      <c r="F24" t="s" s="3">
+      <c r="F24" t="s" s="4">
         <v>68</v>
       </c>
     </row>
     <row r="25" ht="15.0" customHeight="true">
-      <c r="A25" t="s" s="3">
+      <c r="A25" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="B25" t="s" s="3">
+      <c r="B25" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C25" t="s" s="3">
+      <c r="C25" t="s" s="4">
         <v>27</v>
       </c>
-      <c r="D25" t="s" s="3">
+      <c r="D25" t="s" s="4">
         <v>37</v>
       </c>
-      <c r="E25" t="s" s="3">
+      <c r="E25" t="s" s="4">
         <v>47</v>
       </c>
-      <c r="F25" t="s" s="3">
+      <c r="F25" t="s" s="4">
         <v>69</v>
       </c>
     </row>
